--- a/2nd Semester/Mini Presentation (Before Spring Break)/Summative Mini Presentation.xlsx
+++ b/2nd Semester/Mini Presentation (Before Spring Break)/Summative Mini Presentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliecuddy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecuddyc939\OneDrive\Bryan-High-School-Cuddy\MathAnalysis\Analysis_PowerPoints\2nd Semester\Mini Presentation (Before Spring Break)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -252,12 +252,18 @@
   </si>
   <si>
     <t>pillars</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1101,22 +1107,22 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1156,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -1166,7 +1172,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1185,16 +1191,22 @@
       <c r="F3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="24">
+        <v>3</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="26">
+        <v>3</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1213,16 +1225,22 @@
       <c r="F4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="G4" s="27">
+        <v>3</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="29">
+        <v>3</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1239,16 +1257,22 @@
         <v>4</v>
       </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1265,16 +1289,22 @@
         <v>4</v>
       </c>
       <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="32">
+        <v>2</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
@@ -1290,7 +1320,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1309,16 +1339,22 @@
       <c r="F8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="24">
+        <v>4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>4</v>
+      </c>
+      <c r="I8" s="26">
+        <v>4</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1337,16 +1373,22 @@
       <c r="F9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28">
+        <v>4</v>
+      </c>
+      <c r="I9" s="29">
+        <v>4</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1422,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1397,16 +1439,22 @@
       <c r="F11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28">
+        <v>4</v>
+      </c>
+      <c r="I11" s="29">
+        <v>4</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1423,16 +1471,22 @@
       <c r="F12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
+      <c r="G12" s="27">
+        <v>4</v>
+      </c>
+      <c r="H12" s="28">
+        <v>4</v>
+      </c>
+      <c r="I12" s="29">
+        <v>4</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -1447,16 +1501,22 @@
         <v>4</v>
       </c>
       <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
+      <c r="G13" s="30">
+        <v>3</v>
+      </c>
+      <c r="H13" s="31">
+        <v>3</v>
+      </c>
+      <c r="I13" s="32">
+        <v>3</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
@@ -1472,7 +1532,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -1491,16 +1551,22 @@
       <c r="F15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="G15" s="24">
+        <v>4</v>
+      </c>
+      <c r="H15" s="25">
+        <v>4</v>
+      </c>
+      <c r="I15" s="26">
+        <v>4</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1519,16 +1585,22 @@
       <c r="F16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="27">
+        <v>4</v>
+      </c>
+      <c r="H16" s="28">
+        <v>4</v>
+      </c>
+      <c r="I16" s="29">
+        <v>4</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -1543,16 +1615,22 @@
         <v>4</v>
       </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="G17" s="30">
+        <v>3</v>
+      </c>
+      <c r="H17" s="31">
+        <v>3</v>
+      </c>
+      <c r="I17" s="32">
+        <v>3.5</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="13"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -1568,7 +1646,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1587,16 +1665,22 @@
       <c r="F19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="G19" s="24">
+        <v>4</v>
+      </c>
+      <c r="H19" s="25">
+        <v>4</v>
+      </c>
+      <c r="I19" s="26">
+        <v>4</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -1615,16 +1699,22 @@
       <c r="F20" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
+      <c r="G20" s="27">
+        <v>4</v>
+      </c>
+      <c r="H20" s="28">
+        <v>4</v>
+      </c>
+      <c r="I20" s="29">
+        <v>4</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1639,16 +1729,22 @@
         <v>4</v>
       </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
+      <c r="G21" s="30">
+        <v>4</v>
+      </c>
+      <c r="H21" s="31">
+        <v>4</v>
+      </c>
+      <c r="I21" s="32">
+        <v>4</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -1664,7 +1760,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
@@ -1683,16 +1779,22 @@
       <c r="F23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="G23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="26">
+        <v>2.5</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
@@ -1711,16 +1813,22 @@
       <c r="F24" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
+      <c r="G24" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="29">
+        <v>2.5</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
@@ -1737,16 +1845,22 @@
         <v>4</v>
       </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="32">
+        <v>2.5</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
@@ -1762,7 +1876,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
@@ -1781,16 +1895,22 @@
       <c r="F27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="26">
+        <v>1</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
@@ -1809,16 +1929,22 @@
       <c r="F28" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
+      <c r="G28" s="27">
+        <v>3</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="29">
+        <v>2.5</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>23</v>
       </c>
@@ -1835,16 +1961,22 @@
       <c r="F29" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
+      <c r="G29" s="30">
+        <v>1</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="32">
+        <v>2</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
       <c r="B30" s="33"/>
       <c r="C30" s="34"/>
@@ -1860,7 +1992,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -1877,16 +2009,22 @@
       <c r="F31" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="24">
+        <v>4</v>
+      </c>
+      <c r="H31" s="25">
+        <v>3</v>
+      </c>
+      <c r="I31" s="26">
+        <v>4</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
@@ -1905,16 +2043,22 @@
       <c r="F32" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="29"/>
+      <c r="G32" s="38">
+        <v>3</v>
+      </c>
+      <c r="H32" s="39">
+        <v>3</v>
+      </c>
+      <c r="I32" s="29">
+        <v>3.5</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>26</v>
       </c>
@@ -1933,16 +2077,22 @@
       <c r="F33" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="29"/>
+      <c r="G33" s="38">
+        <v>3</v>
+      </c>
+      <c r="H33" s="39">
+        <v>3</v>
+      </c>
+      <c r="I33" s="29">
+        <v>3</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>27</v>
       </c>
@@ -1959,16 +2109,22 @@
       <c r="F34" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="41">
+        <v>3</v>
+      </c>
+      <c r="H34" s="42">
+        <v>3</v>
+      </c>
+      <c r="I34" s="32">
+        <v>3</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="43"/>
       <c r="C35" s="44"/>
@@ -1984,7 +2140,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
@@ -2003,16 +2159,22 @@
       <c r="F36" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
+      <c r="G36" s="47">
+        <v>3</v>
+      </c>
+      <c r="H36" s="48">
+        <v>3</v>
+      </c>
+      <c r="I36" s="49">
+        <v>3</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="43"/>
       <c r="C37" s="44"/>
@@ -2028,7 +2190,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>29</v>
       </c>
@@ -2047,16 +2209,22 @@
       <c r="F38" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
+      <c r="G38" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="49">
+        <v>2.5</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2072,7 +2240,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2088,7 +2256,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
